--- a/conf/TestData1.xlsx
+++ b/conf/TestData1.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
